--- a/13_AESA_CC_selection_REMIND_SSP1_RCP19.xlsx
+++ b/13_AESA_CC_selection_REMIND_SSP1_RCP19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>RF</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>LSCcumul</t>
   </si>
   <si>
     <t>FWU</t>
@@ -443,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,22 +465,19 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D2">
-        <v>170.4172732254554</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -492,46 +486,40 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>4.886204577217542</v>
+        <v>5.092702778047973</v>
       </c>
       <c r="D3">
-        <v>190.6690575446266</v>
+        <v>201.2990881694215</v>
       </c>
       <c r="E3">
-        <v>4.580329414986466</v>
+        <v>5.186800348622854</v>
       </c>
       <c r="F3">
-        <v>2.799465616912206</v>
+        <v>3.107547510047284</v>
       </c>
       <c r="G3">
-        <v>0.01024237240629844</v>
+        <v>0.02314989992822057</v>
       </c>
       <c r="H3">
-        <v>0.01616780426036939</v>
-      </c>
-      <c r="I3">
-        <v>0.07521691367093469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.07667177274990654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -551,14 +539,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -578,14 +563,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -605,14 +587,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -632,14 +611,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -659,49 +635,43 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>9.340750031762997</v>
+        <v>8.186941209462361</v>
       </c>
       <c r="D9">
-        <v>361.086330770082</v>
+        <v>318.1097263544052</v>
       </c>
       <c r="E9">
-        <v>4.580329414986466</v>
+        <v>5.186800348622854</v>
       </c>
       <c r="F9">
-        <v>2.799465616912206</v>
+        <v>3.107547510047284</v>
       </c>
       <c r="G9">
-        <v>0.02171423620513106</v>
+        <v>0.02314989992822057</v>
       </c>
       <c r="H9">
-        <v>0.01616780426036939</v>
-      </c>
-      <c r="I9">
-        <v>0.07521691367093469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.07667177274990654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D10">
-        <v>170.3962463177124</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -710,154 +680,136 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>4.324985034745349</v>
+        <v>4.463021765818485</v>
       </c>
       <c r="D11">
-        <v>167.9124226175257</v>
+        <v>175.0878083827549</v>
       </c>
       <c r="E11">
-        <v>3.422296463290703</v>
+        <v>3.787398484026252</v>
       </c>
       <c r="F11">
-        <v>2.091683896908293</v>
+        <v>2.269129316249383</v>
       </c>
       <c r="G11">
-        <v>0.009194693467663681</v>
+        <v>0.01690404295526458</v>
       </c>
       <c r="H11">
-        <v>0.0120801397293391</v>
-      </c>
-      <c r="I11">
-        <v>0.05620001408489145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.05598568218607099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.1080649018707155</v>
+        <v>0.1070851237747749</v>
       </c>
       <c r="D12">
-        <v>20.08506995937211</v>
+        <v>19.86623480158059</v>
       </c>
       <c r="E12">
-        <v>10.75998061943953</v>
+        <v>10.63703105507022</v>
       </c>
       <c r="F12">
-        <v>2.224924527555512</v>
+        <v>2.214879982737651</v>
       </c>
       <c r="G12">
-        <v>0.001019673200104888</v>
+        <v>0.0567457973414496</v>
       </c>
       <c r="H12">
-        <v>0.05949377890443865</v>
-      </c>
-      <c r="I12">
-        <v>0.008185831732417955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.007404513482984334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.2215717145184379</v>
+        <v>0.2546394674254254</v>
       </c>
       <c r="D13">
-        <v>74.34490094635157</v>
+        <v>97.68116492947505</v>
       </c>
       <c r="E13">
-        <v>1.871597555018129</v>
+        <v>2.31179440953198</v>
       </c>
       <c r="F13">
-        <v>2.347281020373669</v>
+        <v>3.086759343543883</v>
       </c>
       <c r="G13">
-        <v>0.0001395266978610829</v>
+        <v>0.01336794047284916</v>
       </c>
       <c r="H13">
-        <v>0.008696402734325353</v>
-      </c>
-      <c r="I13">
-        <v>0.01230002285157836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.0138711503362535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.2061659292979291</v>
+        <v>-0.2419794322853831</v>
       </c>
       <c r="D14">
-        <v>83.36902270093593</v>
+        <v>98.367777921613</v>
       </c>
       <c r="E14">
-        <v>1.420248577567885</v>
+        <v>2.038540451263027</v>
       </c>
       <c r="F14">
-        <v>2.904015860982496</v>
+        <v>3.573267837488323</v>
       </c>
       <c r="G14">
-        <v>0.0001597269191843751</v>
+        <v>0.01766764162663494</v>
       </c>
       <c r="H14">
-        <v>0.006877000748759974</v>
-      </c>
-      <c r="I14">
-        <v>0.01237924722609851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.01406768985906987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.006475948342318535</v>
+        <v>0.007146244589487531</v>
       </c>
       <c r="D15">
-        <v>1.696588089067382</v>
+        <v>2.125172068966191</v>
       </c>
       <c r="E15">
-        <v>5.057831460505936</v>
+        <v>5.820696296587205</v>
       </c>
       <c r="F15">
-        <v>3.463464213537339</v>
+        <v>3.968037010472298</v>
       </c>
       <c r="G15">
-        <v>2.237175755288786E-05</v>
+        <v>0.009243169614025959</v>
       </c>
       <c r="H15">
-        <v>0.007587393257800739</v>
-      </c>
-      <c r="I15">
-        <v>0.01467344726201144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.0167051689669483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -877,49 +829,43 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>8.909477124724345</v>
+        <v>7.684151600737178</v>
       </c>
       <c r="D17">
-        <v>517.8042506309652</v>
+        <v>509.9387962893734</v>
       </c>
       <c r="E17">
-        <v>22.53195467582218</v>
+        <v>24.59546069647869</v>
       </c>
       <c r="F17">
-        <v>13.03136951935731</v>
+        <v>15.11207349049154</v>
       </c>
       <c r="G17">
-        <v>0.02200785584119953</v>
+        <v>0.1139285920102242</v>
       </c>
       <c r="H17">
-        <v>0.09473471537466381</v>
-      </c>
-      <c r="I17">
-        <v>0.1037385631569977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.108034204831327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D18">
-        <v>170.3068855898402</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -928,154 +874,136 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>3.066963039753182</v>
+        <v>3.097729855550498</v>
       </c>
       <c r="D19">
-        <v>117.6771653380064</v>
+        <v>119.4875269876498</v>
       </c>
       <c r="E19">
-        <v>1.398613814131389</v>
+        <v>1.459560670439181</v>
       </c>
       <c r="F19">
-        <v>0.8548230769578464</v>
+        <v>0.8744609050530513</v>
       </c>
       <c r="G19">
-        <v>0.006756512410946408</v>
+        <v>0.006514359757225819</v>
       </c>
       <c r="H19">
-        <v>0.004936875131456406</v>
-      </c>
-      <c r="I19">
-        <v>0.02296765253876577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.02157536371499755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>0.4383512499123393</v>
+        <v>0.4338985915834006</v>
       </c>
       <c r="D20">
-        <v>50.77886456109218</v>
+        <v>51.97516552739044</v>
       </c>
       <c r="E20">
-        <v>23.01215236234236</v>
+        <v>23.92781600968625</v>
       </c>
       <c r="F20">
-        <v>4.758400970566706</v>
+        <v>4.982333927211957</v>
       </c>
       <c r="G20">
-        <v>0.002777915430463559</v>
+        <v>0.127648682332458</v>
       </c>
       <c r="H20">
-        <v>0.1272381385415325</v>
-      </c>
-      <c r="I20">
-        <v>0.01750687233567814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.01665632405742004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0.8631225641343458</v>
+        <v>0.9509451470965965</v>
       </c>
       <c r="D21">
-        <v>234.7865017328919</v>
+        <v>287.0536310668332</v>
       </c>
       <c r="E21">
-        <v>5.735680489132027</v>
+        <v>6.592812156657073</v>
       </c>
       <c r="F21">
-        <v>7.193455620290528</v>
+        <v>8.802869511614938</v>
       </c>
       <c r="G21">
-        <v>0.0005567762621982191</v>
+        <v>0.03812290578067033</v>
       </c>
       <c r="H21">
-        <v>0.02665091507261623</v>
-      </c>
-      <c r="I21">
-        <v>0.03769453582396496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.03955796769237099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>-0.7997760318167101</v>
+        <v>-0.8962772043392695</v>
       </c>
       <c r="D22">
-        <v>249.1512031462399</v>
+        <v>272.7426742479061</v>
       </c>
       <c r="E22">
-        <v>4.352480603659864</v>
+        <v>5.813542161668665</v>
       </c>
       <c r="F22">
-        <v>8.899620043479864</v>
+        <v>10.19030219160103</v>
       </c>
       <c r="G22">
-        <v>0.0006344161739568492</v>
+        <v>0.05038486208603667</v>
       </c>
       <c r="H22">
-        <v>0.02107519264098785</v>
-      </c>
-      <c r="I22">
-        <v>0.0379373261065129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.0401184622371907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>0.02579541741512799</v>
+        <v>0.02751288314270524</v>
       </c>
       <c r="D23">
-        <v>5.42393969316181</v>
+        <v>6.329881683192813</v>
       </c>
       <c r="E23">
-        <v>15.50018333137919</v>
+        <v>16.59955450455383</v>
       </c>
       <c r="F23">
-        <v>10.61410027018372</v>
+        <v>11.31611121336829</v>
       </c>
       <c r="G23">
-        <v>8.93090909903115E-05</v>
+        <v>0.02635981847958986</v>
       </c>
       <c r="H23">
-        <v>0.02325225492812638</v>
-      </c>
-      <c r="I23">
-        <v>0.04496811023468746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.04764006720935179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1095,49 +1023,43 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>8.049001693943739</v>
+        <v>6.708047704448319</v>
       </c>
       <c r="D25">
-        <v>828.1245600612324</v>
+        <v>854.3995176979562</v>
       </c>
       <c r="E25">
-        <v>49.99911060064483</v>
+        <v>54.393285503005</v>
       </c>
       <c r="F25">
-        <v>32.32039998147867</v>
+        <v>36.16607774884927</v>
       </c>
       <c r="G25">
-        <v>0.02228679316738796</v>
+        <v>0.2490306284359806</v>
       </c>
       <c r="H25">
-        <v>0.2031533763147194</v>
-      </c>
-      <c r="I25">
-        <v>0.1610744970396092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1655481849113311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D26">
-        <v>170.2569837914056</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1146,25 +1068,22 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>1.802527233226877</v>
+        <v>1.77889721741955</v>
       </c>
       <c r="D27">
-        <v>68.04723072449183</v>
+        <v>67.15517366814099</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1173,189 +1092,168 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.004288521864599986</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0.7082169628384384</v>
+        <v>0.7023808922331287</v>
       </c>
       <c r="D28">
-        <v>123.7078997007427</v>
+        <v>129.9740448008609</v>
       </c>
       <c r="E28">
-        <v>65.19109508549643</v>
+        <v>69.54715866799337</v>
       </c>
       <c r="F28">
-        <v>13.48006762873517</v>
+        <v>14.48135375299051</v>
       </c>
       <c r="G28">
-        <v>0.005511407344798379</v>
+        <v>0.3710160242097307</v>
       </c>
       <c r="H28">
-        <v>0.3604527493802107</v>
-      </c>
-      <c r="I28">
-        <v>0.04959519479596698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.04841227513526404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>1.231986863108959</v>
+        <v>1.285886427632305</v>
       </c>
       <c r="D29">
-        <v>221.0026025265867</v>
+        <v>243.2637264934376</v>
       </c>
       <c r="E29">
-        <v>4.949690188989804</v>
+        <v>5.111410830507034</v>
       </c>
       <c r="F29">
-        <v>6.207698768463601</v>
+        <v>6.824869493024325</v>
       </c>
       <c r="G29">
-        <v>0.0008260751038465716</v>
+        <v>0.02955670946895648</v>
       </c>
       <c r="H29">
-        <v>0.02299880077219771</v>
-      </c>
-      <c r="I29">
-        <v>0.03252905640401849</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.03066931374519212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>-1.130543694006595</v>
+        <v>-1.192288594058844</v>
       </c>
       <c r="D30">
-        <v>198.3844793735309</v>
+        <v>192.680022674537</v>
       </c>
       <c r="E30">
-        <v>3.756037419191003</v>
+        <v>4.507242381956453</v>
       </c>
       <c r="F30">
-        <v>7.680058555984066</v>
+        <v>7.900546800153341</v>
       </c>
       <c r="G30">
-        <v>0.0009340870112967202</v>
+        <v>0.03906341082388084</v>
       </c>
       <c r="H30">
-        <v>0.01818714875136876</v>
-      </c>
-      <c r="I30">
-        <v>0.03273857586413951</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.03110386546891121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>0.0382572011603516</v>
+        <v>0.03916389814423071</v>
       </c>
       <c r="D31">
-        <v>5.284559178201016</v>
+        <v>5.580779996538754</v>
       </c>
       <c r="E31">
-        <v>13.37611212971888</v>
+        <v>12.86964358456567</v>
       </c>
       <c r="F31">
-        <v>9.159594588964396</v>
+        <v>8.773387143576914</v>
       </c>
       <c r="G31">
-        <v>0.0001326021352290763</v>
+        <v>0.02043678152284772</v>
       </c>
       <c r="H31">
-        <v>0.0200658768053263</v>
-      </c>
-      <c r="I31">
-        <v>0.03880589486596854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.03693536987157783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.005796154886637133</v>
+        <v>0.006059236146820806</v>
       </c>
       <c r="D32">
-        <v>5.47441922799714</v>
+        <v>5.22819082459803</v>
       </c>
       <c r="E32">
-        <v>3.904686985478128</v>
+        <v>4.196382611153837</v>
       </c>
       <c r="F32">
-        <v>0.997821535057427</v>
+        <v>1.01057867071241</v>
       </c>
       <c r="G32">
-        <v>6.864887938602954E-06</v>
+        <v>0.01421171309432742</v>
       </c>
       <c r="H32">
-        <v>0.01397204269758366</v>
-      </c>
-      <c r="I32">
-        <v>0.002734086852080698</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.002217470566321679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>7.110786175760121</v>
+        <v>5.714337508931579</v>
       </c>
       <c r="D33">
-        <v>792.1581745229558</v>
+        <v>760.692576643097</v>
       </c>
       <c r="E33">
-        <v>91.17762180887424</v>
+        <v>96.23183807617637</v>
       </c>
       <c r="F33">
-        <v>37.52524107720465</v>
+        <v>38.99073586045751</v>
       </c>
       <c r="G33">
-        <v>0.02317142214654196</v>
+        <v>0.4742846391197432</v>
       </c>
       <c r="H33">
-        <v>0.4356766184066872</v>
-      </c>
-      <c r="I33">
-        <v>0.1564028087821742</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1493382947872669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D34">
-        <v>170.4172732254554</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1364,154 +1262,136 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>3.425701882721312</v>
+        <v>3.452692965885465</v>
       </c>
       <c r="D35">
-        <v>131.5344369789536</v>
+        <v>133.0559786833799</v>
       </c>
       <c r="E35">
-        <v>1.630597271735182</v>
+        <v>1.556040104586856</v>
       </c>
       <c r="F35">
-        <v>0.9966097596207454</v>
+        <v>0.9322642530141853</v>
       </c>
       <c r="G35">
-        <v>0.007486792747747171</v>
+        <v>0.006944969978466171</v>
       </c>
       <c r="H35">
-        <v>0.005755738316691501</v>
-      </c>
-      <c r="I35">
-        <v>0.02677722126685275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.02300153182497196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>0.1689023543127089</v>
+        <v>0.1694868151265025</v>
       </c>
       <c r="D36">
-        <v>63.68439507774858</v>
+        <v>72.03870643844981</v>
       </c>
       <c r="E36">
-        <v>38.52639979471493</v>
+        <v>44.12499557823563</v>
       </c>
       <c r="F36">
-        <v>7.966402068309282</v>
+        <v>9.187861625922107</v>
       </c>
       <c r="G36">
-        <v>0.002037580182257223</v>
+        <v>0.235395388413519</v>
       </c>
       <c r="H36">
-        <v>0.2130190743308394</v>
-      </c>
-      <c r="I36">
-        <v>0.02930959052153248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.03071572537526194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.6645459338520429</v>
+        <v>0.7210689302834741</v>
       </c>
       <c r="D37">
-        <v>157.6448758621874</v>
+        <v>193.4525539848417</v>
       </c>
       <c r="E37">
-        <v>3.760126907048758</v>
+        <v>4.36358064625377</v>
       </c>
       <c r="F37">
-        <v>4.715797207282848</v>
+        <v>5.826349988387562</v>
       </c>
       <c r="G37">
-        <v>0.0004385448610931906</v>
+        <v>0.02523238488988575</v>
       </c>
       <c r="H37">
-        <v>0.01747147928687715</v>
-      </c>
-      <c r="I37">
-        <v>0.02471132042117164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.02618220846065895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>-0.6102412137895237</v>
+        <v>-0.6726057623472035</v>
       </c>
       <c r="D38">
-        <v>160.0913920823135</v>
+        <v>177.5230797509823</v>
       </c>
       <c r="E38">
-        <v>2.853345729637375</v>
+        <v>3.847805679890723</v>
       </c>
       <c r="F38">
-        <v>5.834303506167426</v>
+        <v>6.744649228000228</v>
       </c>
       <c r="G38">
-        <v>0.0004965727430864018</v>
+        <v>0.03334819858939763</v>
       </c>
       <c r="H38">
-        <v>0.01381621571682186</v>
-      </c>
-      <c r="I38">
-        <v>0.02487048589001327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.02655318265042658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>0.02048873047461881</v>
+        <v>0.02156981448068271</v>
       </c>
       <c r="D39">
-        <v>3.690836151628523</v>
+        <v>4.316393847482296</v>
       </c>
       <c r="E39">
-        <v>10.16141964653393</v>
+        <v>10.98673723008567</v>
       </c>
       <c r="F39">
-        <v>6.9582613772949</v>
+        <v>7.489787773135483</v>
       </c>
       <c r="G39">
-        <v>7.041393653058464E-05</v>
+        <v>0.01744675732041849</v>
       </c>
       <c r="H39">
-        <v>0.01524342744866459</v>
-      </c>
-      <c r="I39">
-        <v>0.02947964092019542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.03153150284299376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1531,49 +1411,43 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>8.123943142116612</v>
+        <v>6.786451194843308</v>
       </c>
       <c r="D41">
-        <v>687.0632093782871</v>
+        <v>697.1973508901198</v>
       </c>
       <c r="E41">
-        <v>56.93188934967017</v>
+        <v>64.87915923905265</v>
       </c>
       <c r="F41">
-        <v>26.4713739186752</v>
+        <v>30.18091286845956</v>
       </c>
       <c r="G41">
-        <v>0.02200176826954719</v>
+        <v>0.318367699191687</v>
       </c>
       <c r="H41">
-        <v>0.2653059350998944</v>
-      </c>
-      <c r="I41">
-        <v>0.1351482590197656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1379841511543132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D42">
-        <v>170.4021897773224</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1582,46 +1456,40 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>2.057246831927579</v>
+        <v>2.032268119914232</v>
       </c>
       <c r="D43">
-        <v>77.74746487839101</v>
+        <v>76.80645018702143</v>
       </c>
       <c r="E43">
-        <v>0.06218675204226067</v>
+        <v>0.04947319811485894</v>
       </c>
       <c r="F43">
-        <v>0.03800811216768523</v>
+        <v>0.02964068467696572</v>
       </c>
       <c r="G43">
-        <v>0.004871613575420345</v>
+        <v>0.0002208104242516493</v>
       </c>
       <c r="H43">
-        <v>0.0002195089356057522</v>
-      </c>
-      <c r="I43">
-        <v>0.001021213789675074</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0007313174882624315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1641,95 +1509,83 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
-        <v>2.009530197941712</v>
+        <v>2.162853692564321</v>
       </c>
       <c r="D45">
-        <v>467.3524301159727</v>
+        <v>552.066797100172</v>
       </c>
       <c r="E45">
-        <v>11.10501789321503</v>
+        <v>12.34845587188183</v>
       </c>
       <c r="F45">
-        <v>13.9274587433414</v>
+        <v>16.48793308942523</v>
       </c>
       <c r="G45">
-        <v>0.001310583598018172</v>
+        <v>0.07140488892363916</v>
       </c>
       <c r="H45">
-        <v>0.05159961216681098</v>
-      </c>
-      <c r="I45">
-        <v>0.07298148765342258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.07409278572230052</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46">
-        <v>-1.874154515326214</v>
+        <v>-2.045631170711105</v>
       </c>
       <c r="D46">
-        <v>470.0939602762172</v>
+        <v>497.0015519765631</v>
       </c>
       <c r="E46">
-        <v>8.426964346270362</v>
+        <v>10.88886914064464</v>
       </c>
       <c r="F46">
-        <v>17.23081332945986</v>
+        <v>19.08661947952894</v>
       </c>
       <c r="G46">
-        <v>0.001495453568017341</v>
+        <v>0.094371753858031</v>
       </c>
       <c r="H46">
-        <v>0.0408042937232267</v>
-      </c>
-      <c r="I46">
-        <v>0.07345156098423351</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0751426020963569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>0.05971675334995469</v>
+        <v>0.06259991260079661</v>
       </c>
       <c r="D47">
-        <v>10.87040681654738</v>
+        <v>12.2738025466253</v>
       </c>
       <c r="E47">
-        <v>30.01035597593537</v>
+        <v>31.09126445918885</v>
       </c>
       <c r="F47">
-        <v>20.55026838473804</v>
+        <v>21.19528004729923</v>
       </c>
       <c r="G47">
-        <v>0.0002106089405678922</v>
+        <v>0.0493724146163265</v>
       </c>
       <c r="H47">
-        <v>0.04501936736603619</v>
-      </c>
-      <c r="I47">
-        <v>0.08706406671823511</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.08923070363443467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1749,49 +1605,43 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>6.706884722438487</v>
+        <v>5.306328985782634</v>
       </c>
       <c r="D49">
-        <v>1196.466451864451</v>
+        <v>1254.959239995366</v>
       </c>
       <c r="E49">
-        <v>49.60452496746302</v>
+        <v>54.37806266983019</v>
       </c>
       <c r="F49">
-        <v>51.74654856970699</v>
+        <v>56.79947330093036</v>
       </c>
       <c r="G49">
-        <v>0.01936012348085637</v>
+        <v>0.2153698678222483</v>
       </c>
       <c r="H49">
-        <v>0.1376427821916796</v>
-      </c>
-      <c r="I49">
-        <v>0.2345183291455663</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.2391974089413545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D50">
-        <v>170.4021897773224</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1800,46 +1650,40 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>2.057246831927579</v>
+        <v>2.032268119914232</v>
       </c>
       <c r="D51">
-        <v>77.74746487839101</v>
+        <v>76.80645018702143</v>
       </c>
       <c r="E51">
-        <v>0.06218675204226067</v>
+        <v>0.04947319811485894</v>
       </c>
       <c r="F51">
-        <v>0.03800811216768523</v>
+        <v>0.02964068467696572</v>
       </c>
       <c r="G51">
-        <v>0.004871613575420345</v>
+        <v>0.0002208104242516493</v>
       </c>
       <c r="H51">
-        <v>0.0002195089356057522</v>
-      </c>
-      <c r="I51">
-        <v>0.001021213789675074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0007313174882624315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1859,95 +1703,83 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.7101576150760156</v>
+        <v>0.7644279281021206</v>
       </c>
       <c r="D53">
-        <v>164.982332708913</v>
+        <v>194.8874154412104</v>
       </c>
       <c r="E53">
-        <v>3.919418079958246</v>
+        <v>4.358278543017118</v>
       </c>
       <c r="F53">
-        <v>4.915573674120494</v>
+        <v>5.819270502150081</v>
       </c>
       <c r="G53">
-        <v>0.00046255891694759</v>
+        <v>0.02520172550246088</v>
       </c>
       <c r="H53">
-        <v>0.01821162782358035</v>
-      </c>
-      <c r="I53">
-        <v>0.02575817211297268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.02615039496081195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>-0.6594554272390727</v>
+        <v>-0.71960756347057</v>
       </c>
       <c r="D54">
-        <v>165.9914278593929</v>
+        <v>175.5021564229997</v>
       </c>
       <c r="E54">
-        <v>2.974222710448363</v>
+        <v>3.843130284933402</v>
       </c>
       <c r="F54">
-        <v>6.081463528044658</v>
+        <v>6.73645393395139</v>
       </c>
       <c r="G54">
-        <v>0.0005278071416531792</v>
+        <v>0.03330767783224624</v>
       </c>
       <c r="H54">
-        <v>0.01440151543172707</v>
-      </c>
-      <c r="I54">
-        <v>0.02592408034737653</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.02652091838694949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.2741405664776081</v>
+        <v>0.2867955467263991</v>
       </c>
       <c r="D55">
-        <v>50.55726554569072</v>
+        <v>57.07625375817096</v>
       </c>
       <c r="E55">
-        <v>140.0483278876984</v>
+        <v>145.0925674762146</v>
       </c>
       <c r="F55">
-        <v>95.90125246211085</v>
+        <v>98.91130688739641</v>
       </c>
       <c r="G55">
-        <v>0.0009828417226501636</v>
+        <v>0.230404601542857</v>
       </c>
       <c r="H55">
-        <v>0.2100903810415022</v>
-      </c>
-      <c r="I55">
-        <v>0.4062989780184305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.4164099502940284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1967,49 +1799,43 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>6.836635040787584</v>
+        <v>5.45812246268657</v>
       </c>
       <c r="D57">
-        <v>629.68068076971</v>
+        <v>621.0829139943862</v>
       </c>
       <c r="E57">
-        <v>147.0041554301473</v>
+        <v>153.34344950228</v>
       </c>
       <c r="F57">
-        <v>106.9362977764437</v>
+        <v>111.4966720081748</v>
       </c>
       <c r="G57">
-        <v>0.01831668515550389</v>
+        <v>0.2891348153018158</v>
       </c>
       <c r="H57">
-        <v>0.2429230332324153</v>
-      </c>
-      <c r="I57">
-        <v>0.4590024442684548</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.4698125811300523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D58">
-        <v>170.4021897773224</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2018,73 +1844,64 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>2.057246831927579</v>
+        <v>2.032268119914232</v>
       </c>
       <c r="D59">
-        <v>77.74746487839101</v>
+        <v>76.80645018702143</v>
       </c>
       <c r="E59">
-        <v>0.06218675204226067</v>
+        <v>0.04947319811485894</v>
       </c>
       <c r="F59">
-        <v>0.03800811216768523</v>
+        <v>0.02964068467696572</v>
       </c>
       <c r="G59">
-        <v>0.004871613575420345</v>
+        <v>0.0002208104242516493</v>
       </c>
       <c r="H59">
-        <v>0.0002195089356057522</v>
-      </c>
-      <c r="I59">
-        <v>0.001021213789675074</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.0007313174882624315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>1.101565308402492</v>
+        <v>1.088773222644293</v>
       </c>
       <c r="D60">
-        <v>223.940342214404</v>
+        <v>226.8574650415244</v>
       </c>
       <c r="E60">
-        <v>122.5913873050342</v>
+        <v>124.8689104010513</v>
       </c>
       <c r="F60">
-        <v>25.34917060995927</v>
+        <v>26.0006432886854</v>
       </c>
       <c r="G60">
-        <v>0.01151167340131919</v>
+        <v>0.6661431979638897</v>
       </c>
       <c r="H60">
-        <v>0.6778288130684396</v>
-      </c>
-      <c r="I60">
-        <v>0.09326340853344027</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.08692214264331138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2104,14 +1921,11 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2131,14 +1945,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2158,14 +1969,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2185,49 +1993,43 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>7.613357594875525</v>
+        <v>6.215279773972913</v>
       </c>
       <c r="D65">
-        <v>472.0899968701174</v>
+        <v>420.4745534135295</v>
       </c>
       <c r="E65">
-        <v>122.6535740570765</v>
+        <v>124.9183835991662</v>
       </c>
       <c r="F65">
-        <v>25.38717872212696</v>
+        <v>26.03028397336237</v>
       </c>
       <c r="G65">
-        <v>0.02785515077557215</v>
+        <v>0.6663640083881412</v>
       </c>
       <c r="H65">
-        <v>0.6780483220040453</v>
-      </c>
-      <c r="I65">
-        <v>0.09428462232311534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.08765346013157381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C66">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D66">
-        <v>170.4021897773224</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2236,73 +2038,64 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.01147186379883262</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>2.057246831927579</v>
+        <v>2.032268119914232</v>
       </c>
       <c r="D67">
-        <v>77.74746487839101</v>
+        <v>76.80645018702143</v>
       </c>
       <c r="E67">
-        <v>0.06218675204226067</v>
+        <v>0.04947319811485894</v>
       </c>
       <c r="F67">
-        <v>0.03800811216768523</v>
+        <v>0.02964068467696572</v>
       </c>
       <c r="G67">
-        <v>0.004871613575420345</v>
+        <v>0.0002208104242516493</v>
       </c>
       <c r="H67">
-        <v>0.0002195089356057522</v>
-      </c>
-      <c r="I67">
-        <v>0.001021213789675074</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.0007313174882624315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>0.5291798119211278</v>
+        <v>0.5612478779968222</v>
       </c>
       <c r="D68">
-        <v>140.3639938693348</v>
+        <v>149.9342846726983</v>
       </c>
       <c r="E68">
-        <v>140.3409862600803</v>
+        <v>139.7774713244702</v>
       </c>
       <c r="F68">
-        <v>35.07216175093102</v>
+        <v>34.99211450475192</v>
       </c>
       <c r="G68">
-        <v>0.0001408384478281405</v>
+        <v>0.1855141470439075</v>
       </c>
       <c r="H68">
-        <v>0.1747548785826171</v>
-      </c>
-      <c r="I68">
-        <v>0.08642482219605523</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.08714494984518475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2322,14 +2115,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2349,14 +2139,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2376,14 +2163,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2403,35 +2187,29 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>7.040972098394161</v>
+        <v>5.687754429325443</v>
       </c>
       <c r="D73">
-        <v>388.5136485250482</v>
+        <v>343.5513730447034</v>
       </c>
       <c r="E73">
-        <v>140.4031730121226</v>
+        <v>139.8269445225851</v>
       </c>
       <c r="F73">
-        <v>35.1101698630987</v>
+        <v>35.02175518942888</v>
       </c>
       <c r="G73">
-        <v>0.0164843158220811</v>
+        <v>0.1857349574681592</v>
       </c>
       <c r="H73">
-        <v>0.1749743875182229</v>
-      </c>
-      <c r="I73">
-        <v>0.08744603598573029</v>
+        <v>0.08787626733344718</v>
       </c>
     </row>
   </sheetData>
